--- a/khurana_cv/data/pubs.xlsx
+++ b/khurana_cv/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\Dropbox (University of Oregon)\Administrative\khurana_cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181A93F6-4C5B-4A7D-A9ED-9E8B52191DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2EAEB1-1FF7-4363-BBB4-C81851D73D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11726" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>type</t>
   </si>
@@ -139,20 +139,41 @@
     <t xml:space="preserve">Biancarosa, G., Khurana, H., Kennedy, P. </t>
   </si>
   <si>
-    <t>Comparing Reading Growth Trajectories Pre- and Post-COVID-19-related School Closure in a Large Urban District.</t>
-  </si>
-  <si>
     <t>December,2023</t>
   </si>
   <si>
     <t>District Presentation</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>September, 2024</t>
+  </si>
+  <si>
+    <t>Khurana, H., Kennedy, P., Biancarosa, G.</t>
+  </si>
+  <si>
+    <t>DIBELS Spanish Instructions: Randomized Control Trial of Spanish Instructions as an Accommodation</t>
+  </si>
+  <si>
+    <t>tech_report</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Comparing Reading Growth Trajectories Pre- and Post-COVID-19-related School Closure in a Large Urban District</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -181,13 +202,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Liberation Serif"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Liberation Serif"/>
@@ -247,8 +261,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1424,13 +1438,13 @@
     <col min="5" max="5" width="146.5" style="1" customWidth="1"/>
     <col min="6" max="10" width="10.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="76.125" style="1" customWidth="1"/>
-    <col min="12" max="17" width="10.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="74" style="1" customWidth="1"/>
-    <col min="19" max="23" width="10.875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.875" style="1"/>
+    <col min="12" max="18" width="10.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="74" style="1" customWidth="1"/>
+    <col min="20" max="24" width="10.875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1474,31 +1488,34 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1526,13 +1543,14 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="6"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="2"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
-    </row>
-    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W2" s="6"/>
+    </row>
+    <row r="3" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1559,22 +1577,25 @@
       <c r="N3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="3" t="b">
+      <c r="O3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="3" t="b">
+      <c r="R3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="6"/>
+      <c r="T3" s="5"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
-    </row>
-    <row r="4" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1601,20 +1622,23 @@
       <c r="N4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="7" t="b">
+      <c r="O4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="6"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="8"/>
       <c r="V4" s="6"/>
-    </row>
-    <row r="5" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1641,20 +1665,23 @@
       <c r="N5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="7" t="b">
+      <c r="O5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="Q5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="6"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-    </row>
-    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -1665,10 +1692,10 @@
         <v>38</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="13" t="s">
         <v>39</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1679,23 +1706,36 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1705,16 +1745,19 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="6"/>
+      <c r="O7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="8"/>
       <c r="V7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -1729,16 +1772,17 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="5"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="3"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="6"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="8"/>
       <c r="V8" s="6"/>
-    </row>
-    <row r="9" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -1753,16 +1797,17 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="5"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="3"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="6"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="8"/>
       <c r="V9" s="6"/>
-    </row>
-    <row r="10" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -1777,16 +1822,17 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="6"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="5"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
-    </row>
-    <row r="11" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -1801,16 +1847,17 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="5"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="3"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="6"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
-    </row>
-    <row r="12" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -1825,16 +1872,17 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="5"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="3"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="6"/>
+      <c r="T12" s="5"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
-    </row>
-    <row r="13" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -1849,16 +1897,17 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="5"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="6"/>
+      <c r="T13" s="5"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
-    </row>
-    <row r="14" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -1873,16 +1922,17 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="5"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="3"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="6"/>
+      <c r="T14" s="5"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
-    </row>
-    <row r="15" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -1897,16 +1947,17 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="5"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="3"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="6"/>
+      <c r="T15" s="5"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
-    </row>
-    <row r="16" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -1921,16 +1972,17 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="5"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="3"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="6"/>
+      <c r="T16" s="5"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
-    </row>
-    <row r="17" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -1945,16 +1997,17 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="5"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="3"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="6"/>
+      <c r="T17" s="5"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
-    </row>
-    <row r="18" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -1969,16 +2022,17 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="5"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="3"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="6"/>
+      <c r="T18" s="5"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
-    </row>
-    <row r="19" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -1993,16 +2047,17 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="5"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="3"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="6"/>
+      <c r="T19" s="5"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
-    </row>
-    <row r="20" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -2017,16 +2072,17 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="5"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="3"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="6"/>
+      <c r="T20" s="5"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
-    </row>
-    <row r="21" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
@@ -2041,16 +2097,17 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="5"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="3"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="6"/>
+      <c r="T21" s="5"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
-    </row>
-    <row r="22" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
@@ -2065,16 +2122,17 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="5"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="3"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="6"/>
+      <c r="T22" s="5"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
-    </row>
-    <row r="23" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
@@ -2089,16 +2147,17 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="5"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="3"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="6"/>
+      <c r="T23" s="5"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
-    </row>
-    <row r="24" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
@@ -2113,16 +2172,17 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="5"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="3"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="6"/>
+      <c r="T24" s="5"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
-    </row>
-    <row r="25" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
@@ -2137,16 +2197,17 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="5"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="3"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="6"/>
+      <c r="T25" s="5"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
-    </row>
-    <row r="26" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
@@ -2161,16 +2222,17 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="5"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="3"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="6"/>
+      <c r="T26" s="5"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
-    </row>
-    <row r="27" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
@@ -2185,16 +2247,17 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="5"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="3"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="6"/>
+      <c r="T27" s="5"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
-    </row>
-    <row r="28" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
@@ -2209,16 +2272,17 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="5"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="3"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="6"/>
+      <c r="T28" s="5"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
-    </row>
-    <row r="29" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
@@ -2233,16 +2297,17 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="5"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="3"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="6"/>
+      <c r="T29" s="5"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
-    </row>
-    <row r="30" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W29" s="6"/>
+    </row>
+    <row r="30" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -2257,16 +2322,17 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="5"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="3"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="6"/>
+      <c r="T30" s="5"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
-    </row>
-    <row r="31" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
@@ -2281,16 +2347,17 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="5"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="3"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="6"/>
+      <c r="T31" s="5"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
-    </row>
-    <row r="32" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W31" s="6"/>
+    </row>
+    <row r="32" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -2305,16 +2372,17 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="5"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="3"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="6"/>
+      <c r="T32" s="5"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
-    </row>
-    <row r="33" spans="1:22" ht="18" customHeight="1">
+      <c r="W32" s="6"/>
+    </row>
+    <row r="33" spans="1:23" ht="18" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -2329,16 +2397,17 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="5"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="3"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="6"/>
+      <c r="T33" s="5"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
-    </row>
-    <row r="34" spans="1:22" ht="18" customHeight="1">
+      <c r="W33" s="6"/>
+    </row>
+    <row r="34" spans="1:23" ht="18" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -2353,16 +2422,17 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="5"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="3"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="6"/>
+      <c r="T34" s="5"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
-    </row>
-    <row r="35" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -2377,16 +2447,17 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="5"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="3"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="6"/>
+      <c r="T35" s="5"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
-    </row>
-    <row r="36" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W35" s="6"/>
+    </row>
+    <row r="36" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
@@ -2404,13 +2475,14 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="6"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="5"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
-    </row>
-    <row r="37" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W36" s="6"/>
+    </row>
+    <row r="37" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
@@ -2428,13 +2500,14 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="6"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="5"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
-    </row>
-    <row r="38" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W37" s="6"/>
+    </row>
+    <row r="38" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -2452,13 +2525,14 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="6"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="5"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
-    </row>
-    <row r="39" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W38" s="6"/>
+    </row>
+    <row r="39" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
@@ -2476,13 +2550,14 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="6"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="5"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
-    </row>
-    <row r="40" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W39" s="6"/>
+    </row>
+    <row r="40" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="9"/>
@@ -2500,13 +2575,14 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="6"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="5"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
-    </row>
-    <row r="41" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W40" s="6"/>
+    </row>
+    <row r="41" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="9"/>
@@ -2524,13 +2600,14 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="6"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="5"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
-    </row>
-    <row r="42" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W41" s="6"/>
+    </row>
+    <row r="42" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -2548,13 +2625,14 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="6"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="5"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
-    </row>
-    <row r="43" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W42" s="6"/>
+    </row>
+    <row r="43" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -2572,13 +2650,14 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="6"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="5"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
-    </row>
-    <row r="44" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W43" s="6"/>
+    </row>
+    <row r="44" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -2596,13 +2675,14 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="6"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="5"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
-    </row>
-    <row r="45" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W44" s="6"/>
+    </row>
+    <row r="45" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -2620,13 +2700,14 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="6"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="5"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
-    </row>
-    <row r="46" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W45" s="6"/>
+    </row>
+    <row r="46" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -2641,16 +2722,17 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="8"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="6"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="7"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="8"/>
       <c r="V46" s="6"/>
-    </row>
-    <row r="47" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W46" s="6"/>
+    </row>
+    <row r="47" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -2665,16 +2747,17 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="8"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="6"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="7"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="8"/>
       <c r="V47" s="6"/>
-    </row>
-    <row r="48" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W47" s="6"/>
+    </row>
+    <row r="48" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -2689,16 +2772,17 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="6"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="7"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="8"/>
       <c r="V48" s="6"/>
-    </row>
-    <row r="49" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W48" s="6"/>
+    </row>
+    <row r="49" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -2713,16 +2797,17 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="6"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="7"/>
       <c r="S49" s="6"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="8"/>
       <c r="V49" s="6"/>
-    </row>
-    <row r="50" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W49" s="6"/>
+    </row>
+    <row r="50" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -2741,12 +2826,13 @@
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="8"/>
-    </row>
-    <row r="51" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="S50" s="6"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="8"/>
+    </row>
+    <row r="51" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -2765,12 +2851,13 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="6"/>
-    </row>
-    <row r="52" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="S51" s="6"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="6"/>
+    </row>
+    <row r="52" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -2789,12 +2876,13 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="6"/>
-    </row>
-    <row r="53" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="S52" s="6"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="6"/>
+    </row>
+    <row r="53" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -2813,12 +2901,13 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="8"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="6"/>
       <c r="V53" s="8"/>
-    </row>
-    <row r="54" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W53" s="8"/>
+    </row>
+    <row r="54" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -2837,12 +2926,13 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="6"/>
-    </row>
-    <row r="55" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="S54" s="6"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="6"/>
+    </row>
+    <row r="55" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
@@ -2861,12 +2951,13 @@
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="6"/>
-    </row>
-    <row r="56" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="S55" s="6"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="6"/>
+    </row>
+    <row r="56" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -2884,13 +2975,14 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
-      <c r="R56" s="8"/>
+      <c r="R56" s="6"/>
       <c r="S56" s="8"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="8"/>
-    </row>
-    <row r="57" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="T56" s="8"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="8"/>
+    </row>
+    <row r="57" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -2908,13 +3000,14 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
-      <c r="R57" s="8"/>
+      <c r="R57" s="6"/>
       <c r="S57" s="8"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="8"/>
-    </row>
-    <row r="58" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="T57" s="8"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="8"/>
+    </row>
+    <row r="58" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -2932,13 +3025,14 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
-      <c r="R58" s="8"/>
+      <c r="R58" s="6"/>
       <c r="S58" s="8"/>
-      <c r="T58" s="6"/>
+      <c r="T58" s="8"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
-    </row>
-    <row r="59" spans="1:22" ht="17.100000000000001" customHeight="1">
+      <c r="W58" s="6"/>
+    </row>
+    <row r="59" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -2956,11 +3050,12 @@
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="8"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/khurana_cv/data/pubs.xlsx
+++ b/khurana_cv/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2EAEB1-1FF7-4363-BBB4-C81851D73D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44D973E-C1F0-43C5-9023-3B946774093C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>Diversity, Expenditure, and Achievement in US Public Schools</t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Biancarosa, G., Khurana, H., Kennedy, P. </t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>Comparing Reading Growth Trajectories Pre- and Post-COVID-19-related School Closure in a Large Urban District</t>
+  </si>
+  <si>
+    <t>internal</t>
   </si>
 </sst>
 </file>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1488,7 +1488,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>14</v>
@@ -1578,7 +1578,7 @@
         <v>28</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P3" s="3" t="b">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>32</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" s="7" t="b">
         <v>1</v>
@@ -1666,7 +1666,7 @@
         <v>32</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P5" s="7" t="b">
         <v>1</v>
@@ -1683,19 +1683,19 @@
     </row>
     <row r="6" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1706,10 +1706,10 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="2"/>
@@ -1722,19 +1722,19 @@
     </row>
     <row r="7" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1746,7 +1746,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="2"/>

--- a/khurana_cv/data/pubs.xlsx
+++ b/khurana_cv/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44D973E-C1F0-43C5-9023-3B946774093C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2CE02C-6561-4455-8F81-34844F050A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>type</t>
   </si>
@@ -136,9 +136,6 @@
     <t xml:space="preserve">Biancarosa, G., Khurana, H., Kennedy, P. </t>
   </si>
   <si>
-    <t>December,2023</t>
-  </si>
-  <si>
     <t>District Presentation</t>
   </si>
   <si>
@@ -166,7 +163,16 @@
     <t>Comparing Reading Growth Trajectories Pre- and Post-COVID-19-related School Closure in a Large Urban District</t>
   </si>
   <si>
-    <t>internal</t>
+    <t>May, 2024</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>December, 2023</t>
   </si>
 </sst>
 </file>
@@ -1424,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1488,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>14</v>
@@ -1578,7 +1584,7 @@
         <v>28</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="3" t="b">
         <v>0</v>
@@ -1600,41 +1606,43 @@
         <v>13</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="7" t="b">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="P4" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="8"/>
+      <c r="R4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
     </row>
@@ -1643,16 +1651,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1666,7 +1674,7 @@
         <v>32</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="b">
         <v>1</v>
@@ -1677,25 +1685,25 @@
       <c r="R5" s="7"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
+      <c r="U5" s="8"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1705,14 +1713,18 @@
       <c r="K6" s="8"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="11" t="s">
-        <v>39</v>
+      <c r="N6" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="P6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R6" s="7"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -1722,47 +1734,61 @@
     </row>
     <row r="7" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="8"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1772,12 +1798,14 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="3"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="T8" s="2"/>
       <c r="U8" s="8"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -1818,7 +1846,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="2"/>
@@ -1826,9 +1854,9 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="2"/>
+      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="6"/>
+      <c r="U10" s="8"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
     </row>
@@ -1851,7 +1879,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="2"/>
       <c r="T11" s="5"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -2382,7 +2410,7 @@
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
     </row>
-    <row r="33" spans="1:23" ht="18" customHeight="1">
+    <row r="33" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -2432,7 +2460,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
     </row>
-    <row r="35" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:23" ht="18" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -2461,7 +2489,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2470,13 +2498,13 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="2"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
@@ -2520,7 +2548,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="9"/>
+      <c r="M38" s="2"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -2560,9 +2588,9 @@
     <row r="40" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="9"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -2610,9 +2638,9 @@
     <row r="42" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="2"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2711,24 +2739,24 @@
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="8"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="8"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
     </row>
@@ -2811,7 +2839,7 @@
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="7"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="2"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -2821,16 +2849,16 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
       <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="7"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="8"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
     </row>
     <row r="51" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="2"/>
@@ -2854,8 +2882,8 @@
       <c r="S51" s="6"/>
       <c r="T51" s="8"/>
       <c r="U51" s="6"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="6"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="8"/>
     </row>
     <row r="52" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="2"/>
@@ -2879,7 +2907,7 @@
       <c r="S52" s="6"/>
       <c r="T52" s="8"/>
       <c r="U52" s="6"/>
-      <c r="V52" s="2"/>
+      <c r="V52" s="8"/>
       <c r="W52" s="6"/>
     </row>
     <row r="53" spans="1:23" ht="17.100000000000001" customHeight="1">
@@ -2904,8 +2932,8 @@
       <c r="S53" s="6"/>
       <c r="T53" s="8"/>
       <c r="U53" s="6"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="6"/>
     </row>
     <row r="54" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="2"/>
@@ -2929,8 +2957,8 @@
       <c r="S54" s="6"/>
       <c r="T54" s="8"/>
       <c r="U54" s="6"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="6"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
     </row>
     <row r="55" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="2"/>
@@ -2962,7 +2990,7 @@
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -2976,18 +3004,18 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="8"/>
+      <c r="S56" s="6"/>
       <c r="T56" s="8"/>
       <c r="U56" s="6"/>
       <c r="V56" s="2"/>
-      <c r="W56" s="8"/>
+      <c r="W56" s="6"/>
     </row>
     <row r="57" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -3029,15 +3057,15 @@
       <c r="S58" s="8"/>
       <c r="T58" s="8"/>
       <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="8"/>
     </row>
     <row r="59" spans="1:23" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="4"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -3052,10 +3080,35 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="8"/>
-      <c r="T59" s="6"/>
+      <c r="T59" s="8"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
+    </row>
+    <row r="60" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/khurana_cv/data/pubs.xlsx
+++ b/khurana_cv/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2CE02C-6561-4455-8F81-34844F050A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D66855-33CE-4120-9B64-CBA294C0C91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>type</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>December, 2023</t>
+  </si>
+  <si>
+    <t>short_cv</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -222,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -245,11 +251,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -270,6 +287,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1430,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W60"/>
+  <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1450,7 +1468,7 @@
     <col min="25" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1520,8 +1538,11 @@
       <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="X1" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1556,7 +1577,7 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1600,8 +1621,11 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-    </row>
-    <row r="4" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="X3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1645,8 +1669,11 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-    </row>
-    <row r="5" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="X4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1688,8 +1715,11 @@
       <c r="U5" s="8"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-    </row>
-    <row r="6" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="X5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1731,8 +1761,11 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-    </row>
-    <row r="7" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="X6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -1772,8 +1805,11 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-    </row>
-    <row r="8" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="X7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1810,7 +1846,7 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
     </row>
-    <row r="9" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -1835,7 +1871,7 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -1860,7 +1896,7 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
     </row>
-    <row r="11" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -1885,7 +1921,7 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
     </row>
-    <row r="12" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -1910,7 +1946,7 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
     </row>
-    <row r="13" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -1935,7 +1971,7 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
     </row>
-    <row r="14" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -1960,7 +1996,7 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
     </row>
-    <row r="15" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -1985,7 +2021,7 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
     </row>
-    <row r="16" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>

--- a/khurana_cv/data/pubs.xlsx
+++ b/khurana_cv/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havis\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D66855-33CE-4120-9B64-CBA294C0C91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50E0591-3F93-482D-8421-AE55DAE27800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>type</t>
   </si>
@@ -142,15 +142,6 @@
     <t>report</t>
   </si>
   <si>
-    <t>September, 2024</t>
-  </si>
-  <si>
-    <t>Khurana, H., Kennedy, P., Biancarosa, G.</t>
-  </si>
-  <si>
-    <t>DIBELS Spanish Instructions: Randomized Control Trial of Spanish Instructions as an Accommodation</t>
-  </si>
-  <si>
     <t>tech_report</t>
   </si>
   <si>
@@ -179,6 +170,27 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>November, 2024</t>
+  </si>
+  <si>
+    <t>Association for Public Policy and Management</t>
+  </si>
+  <si>
+    <t>National Harbor, Maryland</t>
+  </si>
+  <si>
+    <t>Spanish Instructions as a DIBELS® Accommodation</t>
+  </si>
+  <si>
+    <t>Khurana, H., Otterstedt, J., Biancarosa, G., Kennedy, P.</t>
+  </si>
+  <si>
+    <t>December, 2024</t>
+  </si>
+  <si>
+    <t>Technical Report</t>
   </si>
 </sst>
 </file>
@@ -1448,27 +1460,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X60"/>
+  <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="102.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="102.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="146.5" style="1" customWidth="1"/>
-    <col min="6" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="76.125" style="1" customWidth="1"/>
-    <col min="12" max="18" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="76.08203125" style="1" customWidth="1"/>
+    <col min="12" max="18" width="10.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="74" style="1" customWidth="1"/>
-    <col min="20" max="24" width="10.875" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.875" style="1"/>
+    <col min="20" max="24" width="10.83203125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>14</v>
@@ -1539,10 +1551,10 @@
         <v>21</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="17.100000000000001" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1577,7 +1589,7 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:24" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1617,7 @@
         <v>28</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3" s="3" t="b">
         <v>0</v>
@@ -1622,10 +1634,10 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="17.100000000000001" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1649,17 +1661,17 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="10" t="s">
-        <v>32</v>
+      <c r="N4" t="s">
+        <v>51</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="R4" s="3" t="b">
         <v>1</v>
@@ -1670,70 +1682,72 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="7" t="b">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="P5" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="Q5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="8"/>
+      <c r="R5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="17.100000000000001" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1747,7 +1761,7 @@
         <v>32</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P6" s="7" t="b">
         <v>1</v>
@@ -1758,28 +1772,28 @@
       <c r="R6" s="7"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
+      <c r="U6" s="8"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="17.100000000000001" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1789,15 +1803,17 @@
       <c r="K7" s="8"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="11" t="s">
-        <v>38</v>
+      <c r="N7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="P7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="6"/>
@@ -1806,52 +1822,69 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="17.100000000000001" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="8"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-    </row>
-    <row r="9" spans="1:24" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="X8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="17.149999999999999" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1860,18 +1893,22 @@
       <c r="K9" s="2"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="3"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="T9" s="2"/>
       <c r="U9" s="8"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" spans="1:24" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -1896,7 +1933,7 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
     </row>
-    <row r="11" spans="1:24" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -1907,7 +1944,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="2"/>
@@ -1915,13 +1952,13 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="2"/>
+      <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="6"/>
+      <c r="U11" s="8"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
     </row>
-    <row r="12" spans="1:24" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -1940,13 +1977,13 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="5"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
     </row>
-    <row r="13" spans="1:24" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -1971,7 +2008,7 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
     </row>
-    <row r="14" spans="1:24" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -1996,7 +2033,7 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
     </row>
-    <row r="15" spans="1:24" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -2021,7 +2058,7 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
     </row>
-    <row r="16" spans="1:24" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:24" ht="17.149999999999999" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -2046,7 +2083,7 @@
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
     </row>
-    <row r="17" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -2071,7 +2108,7 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
     </row>
-    <row r="18" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -2096,7 +2133,7 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
     </row>
-    <row r="19" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -2121,7 +2158,7 @@
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
     </row>
-    <row r="20" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -2146,7 +2183,7 @@
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
     </row>
-    <row r="21" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
@@ -2171,7 +2208,7 @@
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
     </row>
-    <row r="22" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
@@ -2196,7 +2233,7 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
     </row>
-    <row r="23" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
@@ -2221,7 +2258,7 @@
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
     </row>
-    <row r="24" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
@@ -2246,7 +2283,7 @@
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
     </row>
-    <row r="25" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
@@ -2271,7 +2308,7 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
     </row>
-    <row r="26" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
@@ -2296,7 +2333,7 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
     </row>
-    <row r="27" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
@@ -2321,7 +2358,7 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
     </row>
-    <row r="28" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
@@ -2346,7 +2383,7 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
     </row>
-    <row r="29" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
@@ -2371,7 +2408,7 @@
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
     </row>
-    <row r="30" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -2396,7 +2433,7 @@
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
     </row>
-    <row r="31" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
@@ -2421,7 +2458,7 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
     </row>
-    <row r="32" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -2446,7 +2483,7 @@
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
     </row>
-    <row r="33" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -2471,7 +2508,7 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
     </row>
-    <row r="34" spans="1:23" ht="18" customHeight="1">
+    <row r="34" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -2521,7 +2558,7 @@
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
     </row>
-    <row r="36" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:23" ht="18" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
@@ -2546,11 +2583,11 @@
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
     </row>
-    <row r="37" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2559,19 +2596,19 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="2"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
     </row>
-    <row r="38" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -2596,7 +2633,7 @@
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
     </row>
-    <row r="39" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
@@ -2609,7 +2646,7 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="9"/>
+      <c r="M39" s="2"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -2621,7 +2658,7 @@
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
     </row>
-    <row r="40" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -2646,12 +2683,12 @@
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
     </row>
-    <row r="41" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="41" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="9"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2671,7 +2708,7 @@
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
     </row>
-    <row r="42" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="9"/>
@@ -2696,12 +2733,12 @@
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
     </row>
-    <row r="43" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -2721,7 +2758,7 @@
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
     </row>
-    <row r="44" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -2746,7 +2783,7 @@
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
     </row>
-    <row r="45" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -2771,7 +2808,7 @@
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
     </row>
-    <row r="46" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -2796,32 +2833,32 @@
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
     </row>
-    <row r="47" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="8"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="8"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
     </row>
-    <row r="48" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -2846,7 +2883,7 @@
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
     </row>
-    <row r="49" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="49" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -2871,7 +2908,7 @@
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
     </row>
-    <row r="50" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -2896,11 +2933,11 @@
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
     </row>
-    <row r="51" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="7"/>
+      <c r="D51" s="8"/>
       <c r="E51" s="2"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -2910,18 +2947,18 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
       <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="7"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="8"/>
-    </row>
-    <row r="52" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="T51" s="6"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+    </row>
+    <row r="52" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -2943,10 +2980,10 @@
       <c r="S52" s="6"/>
       <c r="T52" s="8"/>
       <c r="U52" s="6"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="6"/>
-    </row>
-    <row r="53" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="V52" s="3"/>
+      <c r="W52" s="8"/>
+    </row>
+    <row r="53" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -2968,10 +3005,10 @@
       <c r="S53" s="6"/>
       <c r="T53" s="8"/>
       <c r="U53" s="6"/>
-      <c r="V53" s="2"/>
+      <c r="V53" s="8"/>
       <c r="W53" s="6"/>
     </row>
-    <row r="54" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="54" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -2993,10 +3030,10 @@
       <c r="S54" s="6"/>
       <c r="T54" s="8"/>
       <c r="U54" s="6"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-    </row>
-    <row r="55" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="V54" s="2"/>
+      <c r="W54" s="6"/>
+    </row>
+    <row r="55" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
@@ -3018,10 +3055,10 @@
       <c r="S55" s="6"/>
       <c r="T55" s="8"/>
       <c r="U55" s="6"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="6"/>
-    </row>
-    <row r="56" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+    </row>
+    <row r="56" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -3046,12 +3083,12 @@
       <c r="V56" s="2"/>
       <c r="W56" s="6"/>
     </row>
-    <row r="57" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="57" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="8"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -3065,18 +3102,18 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
-      <c r="S57" s="8"/>
+      <c r="S57" s="6"/>
       <c r="T57" s="8"/>
       <c r="U57" s="6"/>
       <c r="V57" s="2"/>
-      <c r="W57" s="8"/>
-    </row>
-    <row r="58" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="W57" s="6"/>
+    </row>
+    <row r="58" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -3096,7 +3133,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="8"/>
     </row>
-    <row r="59" spans="1:23" ht="17.100000000000001" customHeight="1">
+    <row r="59" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -3118,15 +3155,15 @@
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
       <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-    </row>
-    <row r="60" spans="1:23" ht="17.100000000000001" customHeight="1">
+      <c r="V59" s="2"/>
+      <c r="W59" s="8"/>
+    </row>
+    <row r="60" spans="1:23" ht="17.149999999999999" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="4"/>
+      <c r="E60" s="2"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -3141,10 +3178,35 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="8"/>
-      <c r="T60" s="6"/>
+      <c r="T60" s="8"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
+    </row>
+    <row r="61" spans="1:23" ht="17.149999999999999" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/khurana_cv/data/pubs.xlsx
+++ b/khurana_cv/data/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havis\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50E0591-3F93-482D-8421-AE55DAE27800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DC0212-644F-426F-A751-4A1CA25520C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,10 +187,10 @@
     <t>Khurana, H., Otterstedt, J., Biancarosa, G., Kennedy, P.</t>
   </si>
   <si>
-    <t>December, 2024</t>
-  </si>
-  <si>
     <t>Technical Report</t>
+  </si>
+  <si>
+    <t>February, 2025</t>
   </si>
 </sst>
 </file>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1880,7 +1880,7 @@
         <v>54</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>53</v>
@@ -1894,7 +1894,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>41</v>
